--- a/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_015.xlsx
+++ b/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_015.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295016AA1.17) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) Main turbine and auxiliaries</t>
-  </si>
-  <si>
-    <t>(295003AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Load shedding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295004AA2.01) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of DC power </t>
-  </si>
-  <si>
-    <t>(600000AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Actions contained in the fire response procedures for a plant fire on site</t>
-  </si>
-  <si>
-    <t>(295006AK2.02) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) Reactor water level control system</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295027EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Safety relief valves</t>
-  </si>
-  <si>
-    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
-  </si>
-  <si>
-    <t>(295025EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) ARI/RPT/ATWS</t>
+    <t>(295004AK2.01) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) Battery charger</t>
+  </si>
+  <si>
+    <t>(295024EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Suppression pool spray</t>
+  </si>
+  <si>
+    <t>(295027EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Hydrogen recombiners</t>
+  </si>
+  <si>
+    <t>(700000AA2.11) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Grid frequency and voltage</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
   </si>
   <si>
     <t>(295018AK2.04) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Reactor recirculation system</t>
   </si>
   <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295005AA1.04) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) Main turbine generator and auxiliaries</t>
-  </si>
-  <si>
-    <t>(295021AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Thermal stratification</t>
-  </si>
-  <si>
-    <t>(295024EA2.11) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell integrity</t>
-  </si>
-  <si>
-    <t>(700000AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor and turbine trip criteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295038EK2.09) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Post‑accident sample system </t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295037EA1.14) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Reactor feedwater system</t>
-  </si>
-  <si>
-    <t>(295001AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Thermal limits</t>
-  </si>
-  <si>
-    <t>(295013AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.5 / 45.6) Suppression pool cooling operation</t>
-  </si>
-  <si>
-    <t>(295007AK2.01) Knowledge of the relationship between the (APE 7) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(295034EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.7 / 45.6) Process radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(295029EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Venting the suppression pool (Mark I containment)</t>
-  </si>
-  <si>
-    <t>(295020AA2.10) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Reactor building radiation</t>
-  </si>
-  <si>
-    <t>(215005K1.18) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) OPRM</t>
-  </si>
-  <si>
-    <t>(262001K4.02) Knowledge of (SF6 AC) AC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Circuit breaker automatic trips</t>
-  </si>
-  <si>
-    <t>(510000A3.03) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Traveling screen operation</t>
-  </si>
-  <si>
-    <t>(263000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Ground detection</t>
-  </si>
-  <si>
-    <t>(212000A4.18) Ability to manually operate and/or monitor the (SF7 RPS) REACTOR PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Transferring RPS power supplies</t>
-  </si>
-  <si>
-    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(203000A2.13) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve openings due to malfunction(s)</t>
-  </si>
-  <si>
-    <t>(211000K2.02) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Squib valves</t>
-  </si>
-  <si>
-    <t>(215004K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) Detectors</t>
-  </si>
-  <si>
-    <t>(205000K3.02) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
-  </si>
-  <si>
-    <t>(209001A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) System lineup</t>
-  </si>
-  <si>
-    <t>(223002K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) HPCI</t>
-  </si>
-  <si>
-    <t>(300000K4.01) Knowledge of (SF8 IA) INSTRUMENT AIR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Modes of control</t>
+    <t>(295003AK2.03) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) AC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(295021AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Raising reactor water level</t>
+  </si>
+  <si>
+    <t>(295031EA1.14) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) PCIS/NSSSS</t>
+  </si>
+  <si>
+    <t>(295006AA2.02) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Control rod position</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295019AK2.21) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Recirculation system</t>
+  </si>
+  <si>
+    <t>(295005AK2.07) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(295026EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) SLCS injection</t>
+  </si>
+  <si>
+    <t>(295030EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Suppression pool makeup system(s)</t>
+  </si>
+  <si>
+    <t>(295038EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Meteorological data</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295037EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Cold shutdown boron weight</t>
+  </si>
+  <si>
+    <t>(295016AK2.05) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(295025EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Safety/relief valve operation</t>
+  </si>
+  <si>
+    <t>(295013AA2.03) Ability to determine and/or interpret the following as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.10 / 43.5 / 45.13) Open/leaking Safety relief valve</t>
+  </si>
+  <si>
+    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295002AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.8 to 41.10) Loss of heat sink</t>
+  </si>
+  <si>
+    <t>(295011AK2.01) Knowledge of the relationship between the (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Containment ventilation/cooling</t>
+  </si>
+  <si>
+    <t>(295020AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.5 / 45.6) Reactor pressure response</t>
+  </si>
+  <si>
+    <t>(295032EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.7 / 45.6) Isolate damaged portions of affected systems</t>
+  </si>
+  <si>
+    <t>(217000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.7 / 45.7) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(239002K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Drywell instrument air/drywell pneumatics</t>
+  </si>
+  <si>
+    <t>(212000A4.04) Ability to manually operate and/or monitor the (SF7 RPS) REACTOR PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Bypass SCRAM signals</t>
+  </si>
+  <si>
+    <t>(263000K2.03) (SF6 DC) DC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Battery chargers</t>
+  </si>
+  <si>
+    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
+  </si>
+  <si>
+    <t>(262001A3.05) Ability to monitor automatic operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Synchronization of AC sources</t>
+  </si>
+  <si>
+    <t>(205000K4.04) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) Adequate pump NPSH</t>
+  </si>
+  <si>
+    <t>(215003A2.01) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Power supply degradation</t>
+  </si>
+  <si>
+    <t>(211000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.5 / 45.5) SLCS lineup</t>
+  </si>
+  <si>
+    <t>(218000K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(262002K3.11) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Main and reheat steam system</t>
+  </si>
+  <si>
+    <t>(209001K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Loss of emergency generators</t>
+  </si>
+  <si>
+    <t>(264000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Fire protection system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(215004A4.02) Ability to manually operate and/or monitor the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SRMS recorder </t>
+  </si>
+  <si>
+    <t>(209002K2.01) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
+  </si>
+  <si>
+    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (291002K1.21) SENSORS AND DETECTORS (CFR: 41.7) (NUCLEAR INSTRUMENTATION) Effects of voltage changes on neutron detector performance</t>
   </si>
   <si>
     <t>(259002A3.01) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Runout flow control</t>
   </si>
   <si>
-    <t>(215003K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.5 / 45.3) Changing detector position</t>
-  </si>
-  <si>
-    <t>(217000A4.13) Ability to manually operate and/or monitor the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Manual initiation</t>
-  </si>
-  <si>
-    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (291002K1.11) SENSORS AND DETECTORS (CFR: 41.7) (PRESSURE) Effects of operating environment (pressure, temperature, or radiation)</t>
-  </si>
-  <si>
-    <t>(209002A2.21) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadvertent initiation</t>
-  </si>
-  <si>
-    <t>(264000K2.03) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) Knowledge of electrical power supplies to the following: (CFR: 41.7) Turning gear (jet engine)</t>
-  </si>
-  <si>
-    <t>(262002K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) Motor generator</t>
-  </si>
-  <si>
-    <t>(218000K3.02) Knowledge of the effect that a loss or malfunction of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(239002A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.5 / 45.5) Acoustical monitor noise</t>
-  </si>
-  <si>
-    <t>(215005K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) TIP</t>
-  </si>
-  <si>
-    <t>(262001K4.08) Knowledge of (SF6 AC) AC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Alternate breaker control methods</t>
-  </si>
-  <si>
-    <t>(510000A3.01) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Pump starts</t>
-  </si>
-  <si>
-    <t>(263000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Hydrogen generation</t>
-  </si>
-  <si>
-    <t>(288000K3.08) Knowledge of the effect that a loss or malfunction of the (SF9 PVS) PLANT VENTILATION SYSTEMS will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Turbine building differential pressure</t>
-  </si>
-  <si>
-    <t>(219000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE including: (CFR: 41.5 / 45.5) Motor amps</t>
-  </si>
-  <si>
-    <t>(245000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(216000K4.01) Knowledge of (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION design features and/or interlocks that provide for the following: (CFR: 41.7) Reading of nuclear boiler parameters outside the control room</t>
-  </si>
-  <si>
-    <t>(202002A3.04) Ability to monitor automatic operation of the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM including: (CFR: 41.7 / 45.7) System lockups/lockouts</t>
-  </si>
-  <si>
-    <t>(226001K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE : (CFR: 41.5 / 45.3) Vacuum breaker operation</t>
-  </si>
-  <si>
-    <t>(201005A4.03) Ability to manually operate and/or monitor the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Back panel indicating lights</t>
-  </si>
-  <si>
-    <t>(234000) (SF8 FH) FUEL HANDLING (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(256000A2.07) Ability to (a) predict the impacts of the following on the (SF2 CDS) CONDENSATE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High hotwell level</t>
-  </si>
-  <si>
-    <t>(223001K2.01) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES Knowledge of electrical power supplies to the following: (CFR: 41.7) Atmosphere containment/ atmospheric dilution compressors</t>
-  </si>
-  <si>
-    <t>(201001K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 CRDH) CRD HYDRAULIC SYSTEM: (CFR: 41.6-7 / 41.10 / 45.1-6 / 45.8 / 45.12-13) AC power</t>
-  </si>
-  <si>
-    <t>(G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
+    <t>(223002K4.02) Knowledge of (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF design features and/or interlocks that provide for the following: (CFR: 41.7) Testability</t>
+  </si>
+  <si>
+    <t>(215005A2.05) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of recirculation flow signal</t>
+  </si>
+  <si>
+    <t>(203000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Reactor water level</t>
+  </si>
+  <si>
+    <t>(261000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Secondary containment pressure changes</t>
+  </si>
+  <si>
+    <t>(300000K3.12) Knowledge of the effect that a loss or malfunction of the (SF8 IA) INSTRUMENT AIR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Feedwater system</t>
+  </si>
+  <si>
+    <t>(217000K6.17) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.7 / 45.7) Flow controller failure</t>
+  </si>
+  <si>
+    <t>(239002K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
+  </si>
+  <si>
+    <t>(212000A4.01) Ability to manually operate and/or monitor the (SF7 RPS) REACTOR PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System actuation</t>
+  </si>
+  <si>
+    <t>(263000K2.04) (SF6 DC) DC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Inverters</t>
+  </si>
+  <si>
+    <t>(233000K5.10) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP: (CFR: 41.5 / 45.3) Abnormal fuel pool temperatures</t>
+  </si>
+  <si>
+    <t>(223001K3.17) Knowledge of the effect that a loss or malfunction of the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(201001K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 CRDH) CRD HYDRAULIC SYSTEM: (CFR: 41.6-7 / 41.10 / 45.1-6 / 45.8 / 45.12-13) IA</t>
+  </si>
+  <si>
+    <t>(219000K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Keep fill system</t>
+  </si>
+  <si>
+    <t>(204000A4.04) Ability to manually operate and/or monitor the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Heat exchanger temperature</t>
+  </si>
+  <si>
+    <t>(230000K2.03) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE Knowledge of electrical power supplies to the following: (CFR: 41.7) Control logic</t>
+  </si>
+  <si>
+    <t>(202002) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(234000A3.02) Ability to monitor automatic operation of the (SF8 FH) FUEL HANDLING including: (CFR: 41.7 / 45.7) Interlock operation</t>
+  </si>
+  <si>
+    <t>(239001K4.09) Knowledge of (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Equalization of pressure across the MSIVs before opening</t>
+  </si>
+  <si>
+    <t>(226001A2.13) Ability to (a) predict the impacts of the following on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve logic failure</t>
+  </si>
+  <si>
+    <t>(245000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS including: (CFR: 41.5 / 45.5) Lights and alarms</t>
   </si>
   <si>
     <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
   </si>
   <si>
-    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292006K1.06) FISSION PRODUCT POISONS (CFR: 41.1) Describe the following processes and state their effect on reactor operations: --Transient xenon</t>
-  </si>
-  <si>
-    <t>(292004K1.01) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the moderator temperature coefficient of reactivity</t>
-  </si>
-  <si>
-    <t>(292002K1.14) NEUTRON LIFE CYCLE (CFR: 41.1) Evaluate change in shutdown margin due to changes in plant parameters</t>
-  </si>
-  <si>
-    <t>(293007K1.03) HEAT TRANSFER (CFR: 41.14) (HEAT TRANSFER) Explain the manner in which fluid films affects heat</t>
-  </si>
-  <si>
-    <t>(293004K1.12) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Describe the process of condensate depression (subcooling) and its effect on plant operation</t>
-  </si>
-  <si>
-    <t>(293003K1.16) STEAM (CFR: 41.14) Define the following term: Subcooling</t>
-  </si>
-  <si>
-    <t>(295016AA2.01) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295004AA2.04) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(295006AA2.03) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295027EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
-  </si>
-  <si>
-    <t>(295033EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Source of high area radiation</t>
-  </si>
-  <si>
-    <t>(295014) (APE 14) INADVERTENT REACTIVITY ADDITION (G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295032EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Area temperature</t>
-  </si>
-  <si>
-    <t>(212000A2.10) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Reactor/turbine pressure regulating system low hydraulic pressure</t>
-  </si>
-  <si>
-    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
-  </si>
-  <si>
-    <t>(203000A2.08) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate room cooling</t>
-  </si>
-  <si>
-    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station’s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(215004A2.02) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) SRMS inoperable condition</t>
-  </si>
-  <si>
-    <t>(239001) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(290003A2.02) Ability to (a) predict the impacts of the following on the (SF9 CRV) CONTROL ROOM VENTILATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Extreme environmental conditions (fire, toxic gas, smoke, radiation, etc.)</t>
-  </si>
-  <si>
-    <t>(272000) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM  (G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+    <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
+  </si>
+  <si>
+    <t>(292005K1.05) CONTROL RODS (CFR: 41.1) Define rod density</t>
+  </si>
+  <si>
+    <t>(292008K1.08) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (CRITICALITY) Describe reactor power and startup rate/period response once criticality is reached</t>
+  </si>
+  <si>
+    <t>(293003K1.07) STEAM (CFR: 41.14) Define the following term: Saturated liquid</t>
+  </si>
+  <si>
+    <t>(293008K1.37) THERMAL HYDRAULICS (CFR: 41.14) (NATURAL CIRCULATION) Describe means by which the operator can enhance natural circulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(293009K1.16) CORE THERMAL LIMITS (CFR: 41.14) (MAPLHGR) Discuss how changes in the heat generation rate </t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295024EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression chamber pressure</t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(700000AA2.02) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Generator voltage limitations</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(295018AA2.05) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) System pressure</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+  </si>
+  <si>
+    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295022AA2.04) Ability to determine and/or interpret the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
+  </si>
+  <si>
+    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(262001A2.09) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Exceeding voltage limitations</t>
+  </si>
+  <si>
+    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215003A2.08) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Improper overlap</t>
+  </si>
+  <si>
+    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(201003A2.01) Ability to (a) predict the impacts of the following on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1-6 / 45.1-6) Stuck rod</t>
+  </si>
+  <si>
+    <t>(510001) (SF8 CWS*) CIRCULATING WATER SYSTEM (G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(216000A2.14) Ability to (a) predict the impacts of the following on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Partial or complete loss of recirculation flow</t>
+  </si>
+  <si>
+    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
   </si>
   <si>
     <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
+    <t>(G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K3</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>K1</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>G</t>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A3</t>
   </si>
   <si>
     <t>K4</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>K5</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
     <t>295016</t>
   </si>
   <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
     <t>295025</t>
   </si>
   <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
     <t>295013</t>
   </si>
   <si>
-    <t>295007</t>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295002</t>
   </si>
   <si>
     <t>295011</t>
   </si>
   <si>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
     <t>295034</t>
   </si>
   <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>245000</t>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>510001</t>
   </si>
   <si>
     <t>216000</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>272000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,7 +1460,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="D30" t="s">
         <v>112</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1582,7 +1582,7 @@
         <v>3.7</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1616,7 +1616,7 @@
         <v>4.2</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,7 +1647,7 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D41" t="s">
         <v>112</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,7 +1834,7 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D52" t="s">
         <v>112</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1905,7 +1905,7 @@
         <v>3.6</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,7 +1936,7 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D58" t="s">
         <v>112</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D62" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="D80" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="D82" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D86" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D87" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D88" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D89" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D90" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
